--- a/APP_info/永中Office手机版功能点清单0926（按模块）.xlsx
+++ b/APP_info/永中Office手机版功能点清单0926（按模块）.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="727">
   <si>
     <t>一级功能点</t>
   </si>
@@ -1186,6 +1186,9 @@
     <t>test_wp_pic_width_to_height</t>
   </si>
   <si>
+    <t>仅wp可用</t>
+  </si>
+  <si>
     <t>图片裁剪</t>
   </si>
   <si>
@@ -1195,13 +1198,37 @@
     <t>5种阴影</t>
   </si>
   <si>
+    <t>test_wp_pic_shadow</t>
+  </si>
+  <si>
+    <t>test_wp_pic_outline_color</t>
+  </si>
+  <si>
+    <t>test_wp_pic_outline_border_type</t>
+  </si>
+  <si>
+    <t>test_wp_pic_outline_border_px</t>
+  </si>
+  <si>
+    <t>文字环绕(仅wp）</t>
+  </si>
+  <si>
+    <t>test_wp_pic_text_round</t>
+  </si>
+  <si>
     <t>图片插入对于不同手机不一致，另外元素捕捉不到</t>
   </si>
   <si>
     <t>浮于文字上方</t>
   </si>
   <si>
+    <t>test_wp_pic_order</t>
+  </si>
+  <si>
     <t>图片pop菜单</t>
+  </si>
+  <si>
+    <t>test_wp_pop_menu_pic_all_4</t>
   </si>
   <si>
     <t>裁剪</t>
@@ -2246,12 +2273,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2308,7 +2335,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2323,7 +2401,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2331,14 +2409,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF1F4E79"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2369,21 +2454,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -2407,60 +2477,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F4E79"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2515,7 +2542,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,55 +2590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2593,7 +2614,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2605,19 +2686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2629,61 +2704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2935,6 +2962,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2958,45 +3011,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3015,19 +3029,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3036,151 +3063,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3233,19 +3260,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3272,7 +3299,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3281,16 +3308,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3347,22 +3374,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3374,7 +3401,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3386,19 +3413,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3410,7 +3437,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3458,10 +3485,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3518,22 +3545,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6568,11 +6595,11 @@
   <dimension ref="A2:H224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F85" sqref="F85"/>
+      <selection pane="bottomRight" activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -8800,7 +8827,9 @@
         <v>371</v>
       </c>
       <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
+      <c r="H136" s="36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="137" spans="2:8">
       <c r="B137" s="106"/>
@@ -8813,7 +8842,9 @@
         <v>371</v>
       </c>
       <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
+      <c r="H137" s="36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="138" spans="2:8">
       <c r="B138" s="106"/>
@@ -8826,7 +8857,9 @@
         <v>371</v>
       </c>
       <c r="G138" s="25"/>
-      <c r="H138" s="25"/>
+      <c r="H138" s="36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="139" spans="2:8">
       <c r="B139" s="106"/>
@@ -8839,7 +8872,9 @@
         <v>371</v>
       </c>
       <c r="G139" s="25"/>
-      <c r="H139" s="25"/>
+      <c r="H139" s="36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="140" spans="2:8">
       <c r="B140" s="106"/>
@@ -8850,9 +8885,13 @@
         <v>312</v>
       </c>
       <c r="E140" s="61"/>
-      <c r="F140" s="25"/>
+      <c r="F140" s="100" t="s">
+        <v>372</v>
+      </c>
       <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
+      <c r="H140" s="25" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="141" spans="2:8">
       <c r="B141" s="106"/>
@@ -8861,35 +8900,45 @@
         <v>314</v>
       </c>
       <c r="E141" s="24"/>
-      <c r="F141" s="25" t="s">
+      <c r="F141" s="100" t="s">
         <v>372</v>
       </c>
       <c r="G141" s="25"/>
-      <c r="H141" s="25"/>
+      <c r="H141" s="36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="142" spans="2:8">
       <c r="B142" s="106"/>
       <c r="C142" s="68" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D142" s="24"/>
       <c r="E142" s="24"/>
-      <c r="F142" s="25"/>
+      <c r="F142" s="100" t="s">
+        <v>372</v>
+      </c>
       <c r="G142" s="25"/>
-      <c r="H142" s="25"/>
+      <c r="H142" s="25" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="143" spans="2:8">
       <c r="B143" s="106"/>
       <c r="C143" s="79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D143" s="24"/>
       <c r="E143" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="F143" s="25"/>
+        <v>376</v>
+      </c>
+      <c r="F143" s="100" t="s">
+        <v>377</v>
+      </c>
       <c r="G143" s="25"/>
-      <c r="H143" s="25"/>
+      <c r="H143" s="36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="144" spans="2:8">
       <c r="B144" s="106"/>
@@ -8900,9 +8949,13 @@
         <v>303</v>
       </c>
       <c r="E144" s="24"/>
-      <c r="F144" s="25"/>
+      <c r="F144" s="100" t="s">
+        <v>378</v>
+      </c>
       <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
+      <c r="H144" s="36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="145" spans="2:8">
       <c r="B145" s="106"/>
@@ -8911,9 +8964,13 @@
         <v>327</v>
       </c>
       <c r="E145" s="24"/>
-      <c r="F145" s="25"/>
+      <c r="F145" s="100" t="s">
+        <v>379</v>
+      </c>
       <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
+      <c r="H145" s="36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="146" spans="2:8">
       <c r="B146" s="106"/>
@@ -8922,23 +8979,29 @@
         <v>304</v>
       </c>
       <c r="E146" s="24"/>
-      <c r="F146" s="25"/>
+      <c r="F146" s="100" t="s">
+        <v>380</v>
+      </c>
       <c r="G146" s="25"/>
-      <c r="H146" s="25"/>
+      <c r="H146" s="36" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="147" spans="2:8">
       <c r="B147" s="106"/>
       <c r="C147" s="24" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>332</v>
       </c>
       <c r="E147" s="24"/>
-      <c r="F147" s="25"/>
+      <c r="F147" s="25" t="s">
+        <v>382</v>
+      </c>
       <c r="G147" s="25"/>
       <c r="H147" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="2:8">
@@ -8948,10 +9011,12 @@
         <v>334</v>
       </c>
       <c r="E148" s="24"/>
-      <c r="F148" s="25"/>
+      <c r="F148" s="25" t="s">
+        <v>382</v>
+      </c>
       <c r="G148" s="25"/>
       <c r="H148" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="2:8">
@@ -8961,10 +9026,12 @@
         <v>335</v>
       </c>
       <c r="E149" s="24"/>
-      <c r="F149" s="25"/>
+      <c r="F149" s="25" t="s">
+        <v>382</v>
+      </c>
       <c r="G149" s="25"/>
       <c r="H149" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="150" spans="2:8">
@@ -8974,23 +9041,27 @@
         <v>336</v>
       </c>
       <c r="E150" s="24"/>
-      <c r="F150" s="25"/>
+      <c r="F150" s="25" t="s">
+        <v>382</v>
+      </c>
       <c r="G150" s="25"/>
       <c r="H150" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="151" spans="2:8">
       <c r="B151" s="106"/>
       <c r="C151" s="24"/>
       <c r="D151" s="24" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E151" s="24"/>
-      <c r="F151" s="25"/>
+      <c r="F151" s="25" t="s">
+        <v>382</v>
+      </c>
       <c r="G151" s="25"/>
       <c r="H151" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="152" spans="2:8">
@@ -9002,10 +9073,12 @@
         <v>339</v>
       </c>
       <c r="E152" s="51"/>
-      <c r="F152" s="25"/>
+      <c r="F152" s="25" t="s">
+        <v>385</v>
+      </c>
       <c r="G152" s="25"/>
       <c r="H152" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="153" spans="2:8">
@@ -9015,10 +9088,12 @@
         <v>340</v>
       </c>
       <c r="E153" s="51"/>
-      <c r="F153" s="25"/>
+      <c r="F153" s="25" t="s">
+        <v>385</v>
+      </c>
       <c r="G153" s="25"/>
       <c r="H153" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="2:8">
@@ -9028,10 +9103,12 @@
         <v>341</v>
       </c>
       <c r="E154" s="51"/>
-      <c r="F154" s="25"/>
+      <c r="F154" s="25" t="s">
+        <v>385</v>
+      </c>
       <c r="G154" s="25"/>
       <c r="H154" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="2:8">
@@ -9041,10 +9118,12 @@
         <v>342</v>
       </c>
       <c r="E155" s="51"/>
-      <c r="F155" s="25"/>
+      <c r="F155" s="25" t="s">
+        <v>385</v>
+      </c>
       <c r="G155" s="25"/>
       <c r="H155" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" spans="2:8">
@@ -9054,35 +9133,41 @@
         <v>336</v>
       </c>
       <c r="E156" s="24"/>
-      <c r="F156" s="25"/>
+      <c r="F156" s="25" t="s">
+        <v>385</v>
+      </c>
       <c r="G156" s="25"/>
       <c r="H156" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="2:8">
       <c r="B157" s="106"/>
       <c r="C157" s="11"/>
       <c r="D157" s="68" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E157" s="24"/>
-      <c r="F157" s="25"/>
+      <c r="F157" s="25" t="s">
+        <v>385</v>
+      </c>
       <c r="G157" s="25"/>
       <c r="H157" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158" spans="2:8">
       <c r="B158" s="106"/>
       <c r="C158" s="45" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D158" s="24" t="s">
         <v>216</v>
       </c>
       <c r="E158" s="24"/>
-      <c r="F158" s="25"/>
+      <c r="F158" s="25" t="s">
+        <v>387</v>
+      </c>
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
     </row>
@@ -9093,7 +9178,9 @@
         <v>46</v>
       </c>
       <c r="E159" s="24"/>
-      <c r="F159" s="25"/>
+      <c r="F159" s="25" t="s">
+        <v>387</v>
+      </c>
       <c r="G159" s="25"/>
       <c r="H159" s="25"/>
     </row>
@@ -9104,7 +9191,9 @@
         <v>217</v>
       </c>
       <c r="E160" s="24"/>
-      <c r="F160" s="25"/>
+      <c r="F160" s="25" t="s">
+        <v>387</v>
+      </c>
       <c r="G160" s="25"/>
       <c r="H160" s="25"/>
     </row>
@@ -9112,7 +9201,7 @@
       <c r="B161" s="106"/>
       <c r="C161" s="45"/>
       <c r="D161" s="24" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E161" s="26"/>
       <c r="F161" s="25"/>
@@ -9126,23 +9215,25 @@
         <v>350</v>
       </c>
       <c r="E162" s="24"/>
-      <c r="F162" s="25"/>
+      <c r="F162" s="25" t="s">
+        <v>387</v>
+      </c>
       <c r="G162" s="25"/>
       <c r="H162" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="163" spans="2:8">
       <c r="B163" s="106"/>
       <c r="C163" s="45"/>
       <c r="D163" s="24" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="25"/>
       <c r="G163" s="25"/>
       <c r="H163" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="164" spans="2:8">
@@ -9155,7 +9246,7 @@
       <c r="F164" s="25"/>
       <c r="G164" s="25"/>
       <c r="H164" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="165" spans="2:8">
@@ -9170,7 +9261,7 @@
       <c r="F165" s="25"/>
       <c r="G165" s="25"/>
       <c r="H165" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="2:8">
@@ -9183,7 +9274,7 @@
       <c r="F166" s="25"/>
       <c r="G166" s="25"/>
       <c r="H166" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="167" ht="21" customHeight="1" spans="2:8">
@@ -9193,7 +9284,7 @@
       </c>
       <c r="D167" s="24"/>
       <c r="E167" s="24" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F167" s="25"/>
       <c r="G167" s="25"/>
@@ -9201,10 +9292,10 @@
     </row>
     <row r="168" ht="21" customHeight="1" spans="2:8">
       <c r="B168" s="46" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
@@ -9215,10 +9306,10 @@
     <row r="169" ht="21" customHeight="1" spans="2:8">
       <c r="B169" s="46"/>
       <c r="C169" s="9" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E169" s="11"/>
       <c r="F169" s="99"/>
@@ -9229,7 +9320,7 @@
       <c r="B170" s="46"/>
       <c r="C170" s="10"/>
       <c r="D170" s="11" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E170" s="11"/>
       <c r="F170" s="99"/>
@@ -9240,7 +9331,7 @@
       <c r="B171" s="46"/>
       <c r="C171" s="10"/>
       <c r="D171" s="11" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="99"/>
@@ -9262,7 +9353,7 @@
       <c r="B173" s="46"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="E173" s="11"/>
       <c r="F173" s="99"/>
@@ -9272,11 +9363,11 @@
     <row r="174" ht="21" customHeight="1" spans="2:8">
       <c r="B174" s="46"/>
       <c r="C174" s="11" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F174" s="99"/>
       <c r="G174" s="99"/>
@@ -9285,10 +9376,10 @@
     <row r="175" spans="2:8">
       <c r="B175" s="41"/>
       <c r="C175" s="9" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="25"/>
@@ -9299,7 +9390,7 @@
       <c r="B176" s="41"/>
       <c r="C176" s="11"/>
       <c r="D176" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E176" s="8"/>
       <c r="F176" s="25"/>
@@ -9309,10 +9400,10 @@
     <row r="177" spans="2:8">
       <c r="B177" s="41"/>
       <c r="C177" s="9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E177" s="8"/>
       <c r="F177" s="25"/>
@@ -9323,10 +9414,10 @@
       <c r="B178" s="41"/>
       <c r="C178" s="10"/>
       <c r="D178" s="8" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="F178" s="25"/>
       <c r="G178" s="25"/>
@@ -9336,7 +9427,7 @@
       <c r="B179" s="41"/>
       <c r="C179" s="11"/>
       <c r="D179" s="8" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E179" s="8"/>
       <c r="F179" s="25"/>
@@ -9346,10 +9437,10 @@
     <row r="180" spans="2:8">
       <c r="B180" s="41"/>
       <c r="C180" s="9" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E180" s="8"/>
       <c r="F180" s="25"/>
@@ -9360,7 +9451,7 @@
       <c r="B181" s="41"/>
       <c r="C181" s="10"/>
       <c r="D181" s="8" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E181" s="8"/>
       <c r="F181" s="25"/>
@@ -9371,7 +9462,7 @@
       <c r="B182" s="41"/>
       <c r="C182" s="10"/>
       <c r="D182" s="8" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="25"/>
@@ -9382,7 +9473,7 @@
       <c r="B183" s="41"/>
       <c r="C183" s="11"/>
       <c r="D183" s="8" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E183" s="8"/>
       <c r="F183" s="25"/>
@@ -9392,10 +9483,10 @@
     <row r="184" spans="2:8">
       <c r="B184" s="41"/>
       <c r="C184" s="9" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="25"/>
@@ -9406,7 +9497,7 @@
       <c r="B185" s="41"/>
       <c r="C185" s="10"/>
       <c r="D185" s="8" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="25"/>
@@ -9417,7 +9508,7 @@
       <c r="B186" s="41"/>
       <c r="C186" s="11"/>
       <c r="D186" s="8" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="25"/>
@@ -9427,11 +9518,11 @@
     <row r="187" spans="2:8">
       <c r="B187" s="41"/>
       <c r="C187" s="10" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D187" s="8"/>
       <c r="E187" s="8" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F187" s="25"/>
       <c r="G187" s="25"/>
@@ -9440,7 +9531,7 @@
     <row r="188" spans="2:8">
       <c r="B188" s="41"/>
       <c r="C188" s="9" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>216</v>
@@ -9476,7 +9567,7 @@
       <c r="B191" s="41"/>
       <c r="C191" s="10"/>
       <c r="D191" s="8" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E191" s="8"/>
       <c r="F191" s="25"/>
@@ -9487,7 +9578,7 @@
       <c r="B192" s="41"/>
       <c r="C192" s="11"/>
       <c r="D192" s="8" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E192" s="8"/>
       <c r="F192" s="25"/>
@@ -9497,11 +9588,11 @@
     <row r="193" spans="2:8">
       <c r="B193" s="41"/>
       <c r="C193" s="8" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D193" s="8"/>
       <c r="E193" s="8" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F193" s="25"/>
       <c r="G193" s="25"/>
@@ -9510,11 +9601,11 @@
     <row r="194" spans="2:8">
       <c r="B194" s="41"/>
       <c r="C194" s="8" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D194" s="8"/>
       <c r="E194" s="8" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="F194" s="25"/>
       <c r="G194" s="25"/>
@@ -9523,13 +9614,13 @@
     <row r="195" spans="2:8">
       <c r="B195" s="41"/>
       <c r="C195" s="31" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="F195" s="25"/>
       <c r="G195" s="25"/>
@@ -9572,7 +9663,7 @@
       <c r="B199" s="41"/>
       <c r="C199" s="107"/>
       <c r="D199" s="8" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E199" s="8"/>
       <c r="F199" s="25"/>
@@ -9583,7 +9674,7 @@
       <c r="B200" s="41"/>
       <c r="C200" s="107"/>
       <c r="D200" s="8" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E200" s="8"/>
       <c r="F200" s="25"/>
@@ -9594,7 +9685,7 @@
       <c r="B201" s="41"/>
       <c r="C201" s="107"/>
       <c r="D201" s="8" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E201" s="8"/>
       <c r="F201" s="25"/>
@@ -9605,7 +9696,7 @@
       <c r="B202" s="41"/>
       <c r="C202" s="107"/>
       <c r="D202" s="8" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E202" s="8"/>
       <c r="F202" s="25"/>
@@ -9616,7 +9707,7 @@
       <c r="B203" s="41"/>
       <c r="C203" s="98"/>
       <c r="D203" s="8" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="E203" s="8"/>
       <c r="F203" s="25"/>
@@ -9626,13 +9717,13 @@
     <row r="204" spans="2:8">
       <c r="B204" s="41"/>
       <c r="C204" s="31" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F204" s="25"/>
       <c r="G204" s="25"/>
@@ -9675,7 +9766,7 @@
       <c r="B208" s="41"/>
       <c r="C208" s="107"/>
       <c r="D208" s="8" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E208" s="8"/>
       <c r="F208" s="25"/>
@@ -9686,7 +9777,7 @@
       <c r="B209" s="41"/>
       <c r="C209" s="107"/>
       <c r="D209" s="8" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E209" s="8"/>
       <c r="F209" s="25"/>
@@ -9697,7 +9788,7 @@
       <c r="B210" s="41"/>
       <c r="C210" s="107"/>
       <c r="D210" s="8" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E210" s="8"/>
       <c r="F210" s="25"/>
@@ -9708,7 +9799,7 @@
       <c r="B211" s="41"/>
       <c r="C211" s="98"/>
       <c r="D211" s="8" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E211" s="8"/>
       <c r="F211" s="25"/>
@@ -9718,13 +9809,13 @@
     <row r="212" spans="2:8">
       <c r="B212" s="41"/>
       <c r="C212" s="31" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="F212" s="25"/>
       <c r="G212" s="25"/>
@@ -9767,7 +9858,7 @@
       <c r="B216" s="41"/>
       <c r="C216" s="107"/>
       <c r="D216" s="8" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="25"/>
@@ -9778,7 +9869,7 @@
       <c r="B217" s="41"/>
       <c r="C217" s="107"/>
       <c r="D217" s="8" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E217" s="8"/>
       <c r="F217" s="25"/>
@@ -9789,7 +9880,7 @@
       <c r="B218" s="41"/>
       <c r="C218" s="107"/>
       <c r="D218" s="8" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="E218" s="8"/>
       <c r="F218" s="25"/>
@@ -9800,7 +9891,7 @@
       <c r="B219" s="41"/>
       <c r="C219" s="98"/>
       <c r="D219" s="8" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E219" s="8"/>
       <c r="F219" s="25"/>
@@ -9810,11 +9901,11 @@
     <row r="220" spans="2:8">
       <c r="B220" s="41"/>
       <c r="C220" s="8" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D220" s="8"/>
       <c r="E220" s="8" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="F220" s="25"/>
       <c r="G220" s="25"/>
@@ -9823,11 +9914,11 @@
     <row r="221" spans="2:8">
       <c r="B221" s="41"/>
       <c r="C221" s="8" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="D221" s="8"/>
       <c r="E221" s="8" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="F221" s="25"/>
       <c r="G221" s="25"/>
@@ -9836,7 +9927,7 @@
     <row r="222" spans="2:8">
       <c r="B222" s="41"/>
       <c r="C222" s="8" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
@@ -9846,10 +9937,10 @@
     </row>
     <row r="223" spans="2:8">
       <c r="B223" s="93" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
@@ -9860,7 +9951,7 @@
     <row r="224" spans="2:8">
       <c r="B224" s="94"/>
       <c r="C224" s="24" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
@@ -10011,10 +10102,10 @@
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
       <c r="F4" s="36" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>199</v>
@@ -10151,7 +10242,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="24" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24" t="s">
@@ -10342,7 +10433,7 @@
       </c>
       <c r="D25" s="71"/>
       <c r="E25" s="24" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -10404,10 +10495,10 @@
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="24" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -10420,10 +10511,10 @@
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="24" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
@@ -10432,14 +10523,14 @@
       <c r="A31" s="6"/>
       <c r="B31" s="48"/>
       <c r="C31" s="74" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="24" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
@@ -10448,7 +10539,7 @@
       <c r="A32" s="6"/>
       <c r="B32" s="48"/>
       <c r="C32" s="35" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="24"/>
@@ -10460,7 +10551,7 @@
       <c r="A33" s="6"/>
       <c r="B33" s="48"/>
       <c r="C33" s="35" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="24"/>
@@ -10472,7 +10563,7 @@
       <c r="A34" s="6"/>
       <c r="B34" s="48"/>
       <c r="C34" s="35" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="24"/>
@@ -10484,11 +10575,11 @@
       <c r="A35" s="6"/>
       <c r="B35" s="48"/>
       <c r="C35" s="57" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D35" s="71"/>
       <c r="E35" s="24" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -10498,11 +10589,11 @@
       <c r="A36" s="6"/>
       <c r="B36" s="49"/>
       <c r="C36" s="57" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="D36" s="71"/>
       <c r="E36" s="24" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
@@ -10514,18 +10605,18 @@
         <v>242</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>243</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="8" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
@@ -10537,7 +10628,7 @@
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="8" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
@@ -10553,7 +10644,7 @@
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="8" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
@@ -10569,7 +10660,7 @@
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="8" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
@@ -10585,7 +10676,7 @@
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="8" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8" t="s">
@@ -10601,7 +10692,7 @@
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="8" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8" t="s">
@@ -10619,7 +10710,7 @@
         <v>251</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
@@ -10642,7 +10733,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="10"/>
       <c r="C45" s="33" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>243</v>
@@ -10743,13 +10834,13 @@
       <c r="B53" s="10"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>251</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
@@ -10763,7 +10854,7 @@
         <v>252</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
@@ -10773,13 +10864,13 @@
       <c r="B55" s="10"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
@@ -10790,10 +10881,10 @@
       <c r="C56" s="33"/>
       <c r="D56" s="35"/>
       <c r="E56" s="24" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
@@ -10803,13 +10894,13 @@
       <c r="B57" s="10"/>
       <c r="C57" s="33"/>
       <c r="D57" s="67" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
@@ -10820,10 +10911,10 @@
       <c r="C58" s="33"/>
       <c r="D58" s="70"/>
       <c r="E58" s="24" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
@@ -10833,17 +10924,17 @@
       <c r="B59" s="10"/>
       <c r="C59" s="33"/>
       <c r="D59" s="71" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G59" s="24"/>
       <c r="H59" s="8" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:8">
@@ -10851,11 +10942,11 @@
       <c r="B60" s="10"/>
       <c r="C60" s="33"/>
       <c r="D60" s="71" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="8" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="G60" s="24"/>
       <c r="H60" s="24"/>
@@ -10865,11 +10956,11 @@
       <c r="B61" s="10"/>
       <c r="C61" s="33"/>
       <c r="D61" s="35" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="E61" s="29"/>
       <c r="F61" s="8" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="G61" s="24"/>
       <c r="H61" s="24"/>
@@ -10879,7 +10970,7 @@
       <c r="B62" s="10"/>
       <c r="C62" s="33"/>
       <c r="D62" s="70" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="24"/>
@@ -10891,7 +10982,7 @@
       <c r="B63" s="10"/>
       <c r="C63" s="33"/>
       <c r="D63" s="35" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="E63" s="71"/>
       <c r="F63" s="24"/>
@@ -10903,13 +10994,13 @@
       <c r="B64" s="10"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="E64" s="71" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
@@ -10920,10 +11011,10 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="71" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G65" s="24"/>
       <c r="H65" s="24"/>
@@ -10934,7 +11025,7 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="75" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
@@ -10946,7 +11037,7 @@
       <c r="C67" s="33"/>
       <c r="D67" s="35"/>
       <c r="E67" s="75" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
@@ -10957,13 +11048,13 @@
       <c r="B68" s="10"/>
       <c r="C68" s="33"/>
       <c r="D68" s="33" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="E68" s="71" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G68" s="24"/>
       <c r="H68" s="24"/>
@@ -10974,10 +11065,10 @@
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="71" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G69" s="24"/>
       <c r="H69" s="24"/>
@@ -10988,7 +11079,7 @@
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="75" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
@@ -11000,7 +11091,7 @@
       <c r="C71" s="33"/>
       <c r="D71" s="35"/>
       <c r="E71" s="75" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
@@ -11011,13 +11102,13 @@
       <c r="B72" s="10"/>
       <c r="C72" s="33"/>
       <c r="D72" s="33" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E72" s="71" t="s">
+        <v>489</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>471</v>
       </c>
       <c r="G72" s="24"/>
       <c r="H72" s="24"/>
@@ -11028,10 +11119,10 @@
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="71" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G73" s="24"/>
       <c r="H73" s="24"/>
@@ -11042,10 +11133,10 @@
       <c r="C74" s="33"/>
       <c r="D74" s="35"/>
       <c r="E74" s="71" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>
@@ -11055,7 +11146,7 @@
       <c r="B75" s="10"/>
       <c r="C75" s="33"/>
       <c r="D75" s="35" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E75" s="71"/>
       <c r="F75" s="24"/>
@@ -11067,13 +11158,13 @@
       <c r="B76" s="11"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="G76" s="24"/>
       <c r="H76" s="24"/>
@@ -11093,7 +11184,7 @@
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
       <c r="H77" s="9" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:8">
@@ -11160,10 +11251,10 @@
       <c r="A82" s="6"/>
       <c r="B82" s="33"/>
       <c r="C82" s="33" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E82" s="71"/>
       <c r="F82" s="8" t="s">
@@ -11177,7 +11268,7 @@
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
       <c r="D83" s="35" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="E83" s="71"/>
       <c r="F83" s="8" t="s">
@@ -11191,7 +11282,7 @@
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
       <c r="D84" s="35" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E84" s="71"/>
       <c r="F84" s="8" t="s">
@@ -11205,7 +11296,7 @@
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
       <c r="D85" s="35" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="E85" s="71"/>
       <c r="F85" s="8" t="s">
@@ -11219,7 +11310,7 @@
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
       <c r="D86" s="35" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="E86" s="71"/>
       <c r="F86" s="8" t="s">
@@ -11233,7 +11324,7 @@
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
       <c r="D87" s="35" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E87" s="71"/>
       <c r="F87" s="8" t="s">
@@ -11247,7 +11338,7 @@
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
       <c r="D88" s="35" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E88" s="71"/>
       <c r="F88" s="8" t="s">
@@ -11261,7 +11352,7 @@
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
       <c r="D89" s="35" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E89" s="71"/>
       <c r="F89" s="8" t="s">
@@ -11275,7 +11366,7 @@
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
       <c r="D90" s="35" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E90" s="71"/>
       <c r="F90" s="8" t="s">
@@ -11289,7 +11380,7 @@
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
       <c r="D91" s="35" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E91" s="71"/>
       <c r="F91" s="8" t="s">
@@ -11303,7 +11394,7 @@
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
       <c r="D92" s="35" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E92" s="71"/>
       <c r="F92" s="8" t="s">
@@ -11317,7 +11408,7 @@
       <c r="B93" s="35"/>
       <c r="C93" s="35"/>
       <c r="D93" s="35" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="E93" s="71"/>
       <c r="F93" s="8" t="s">
@@ -11329,19 +11420,19 @@
     <row r="94" customHeight="1" spans="1:8">
       <c r="A94" s="6"/>
       <c r="B94" s="10" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="D94" s="71" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="E94" s="76" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
@@ -11354,10 +11445,10 @@
         <v>274</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
@@ -11367,15 +11458,15 @@
       <c r="B96" s="10"/>
       <c r="C96" s="33"/>
       <c r="D96" s="71" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G96" s="24"/>
       <c r="H96" s="47" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:8">
@@ -11383,15 +11474,15 @@
       <c r="B97" s="10"/>
       <c r="C97" s="33"/>
       <c r="D97" s="71" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G97" s="24"/>
       <c r="H97" s="47" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:8">
@@ -11399,15 +11490,15 @@
       <c r="B98" s="10"/>
       <c r="C98" s="33"/>
       <c r="D98" s="71" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G98" s="24"/>
       <c r="H98" s="47" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:8">
@@ -11419,11 +11510,11 @@
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G99" s="24"/>
       <c r="H99" s="47" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:8">
@@ -11431,15 +11522,15 @@
       <c r="B100" s="10"/>
       <c r="C100" s="33"/>
       <c r="D100" s="71" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G100" s="24"/>
       <c r="H100" s="47" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:8">
@@ -11447,15 +11538,15 @@
       <c r="B101" s="10"/>
       <c r="C101" s="33"/>
       <c r="D101" s="71" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G101" s="24"/>
       <c r="H101" s="47" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:8">
@@ -11463,15 +11554,15 @@
       <c r="B102" s="10"/>
       <c r="C102" s="33"/>
       <c r="D102" s="71" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G102" s="24"/>
       <c r="H102" s="47" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:8">
@@ -11479,15 +11570,15 @@
       <c r="B103" s="10"/>
       <c r="C103" s="33"/>
       <c r="D103" s="71" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G103" s="24"/>
       <c r="H103" s="47" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:8">
@@ -11495,15 +11586,15 @@
       <c r="B104" s="10"/>
       <c r="C104" s="33"/>
       <c r="D104" s="71" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G104" s="24"/>
       <c r="H104" s="47" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:8">
@@ -11511,15 +11602,15 @@
       <c r="B105" s="10"/>
       <c r="C105" s="33"/>
       <c r="D105" s="71" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G105" s="24"/>
       <c r="H105" s="47" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:8">
@@ -11527,25 +11618,25 @@
       <c r="B106" s="10"/>
       <c r="C106" s="35"/>
       <c r="D106" s="71" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G106" s="24"/>
       <c r="H106" s="47" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:8">
       <c r="A107" s="6"/>
       <c r="B107" s="10"/>
       <c r="C107" s="56" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D107" s="71" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
@@ -11557,7 +11648,7 @@
       <c r="B108" s="10"/>
       <c r="C108" s="57"/>
       <c r="D108" s="71" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
@@ -11568,14 +11659,14 @@
       <c r="A109" s="6"/>
       <c r="B109" s="10"/>
       <c r="C109" s="50" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G109" s="24"/>
       <c r="H109" s="24"/>
@@ -11585,11 +11676,11 @@
       <c r="B110" s="10"/>
       <c r="C110" s="52"/>
       <c r="D110" s="8" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G110" s="24"/>
       <c r="H110" s="24"/>
@@ -11599,11 +11690,11 @@
       <c r="B111" s="10"/>
       <c r="C111" s="52"/>
       <c r="D111" s="8" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G111" s="24"/>
       <c r="H111" s="24"/>
@@ -11613,11 +11704,11 @@
       <c r="B112" s="10"/>
       <c r="C112" s="52"/>
       <c r="D112" s="8" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G112" s="24"/>
       <c r="H112" s="24"/>
@@ -11627,11 +11718,11 @@
       <c r="B113" s="10"/>
       <c r="C113" s="53"/>
       <c r="D113" s="8" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G113" s="24"/>
       <c r="H113" s="24"/>
@@ -11640,14 +11731,14 @@
       <c r="A114" s="6"/>
       <c r="B114" s="10"/>
       <c r="C114" s="51" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G114" s="24"/>
       <c r="H114" s="24"/>
@@ -11656,7 +11747,7 @@
       <c r="A115" s="6"/>
       <c r="B115" s="10"/>
       <c r="C115" s="51" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D115" s="71"/>
       <c r="E115" s="24"/>
@@ -11702,7 +11793,7 @@
       <c r="A118" s="6"/>
       <c r="B118" s="33"/>
       <c r="C118" s="29" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="29"/>
@@ -12206,7 +12297,7 @@
         <v>354</v>
       </c>
       <c r="E151" s="35" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>356</v>
@@ -12219,7 +12310,7 @@
       <c r="B152" s="33"/>
       <c r="C152" s="52"/>
       <c r="D152" s="57" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E152" s="35" t="s">
         <v>358</v>
@@ -12500,7 +12591,7 @@
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="174" spans="2:8">
@@ -12513,7 +12604,7 @@
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="2:8">
@@ -12526,7 +12617,7 @@
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="176" spans="2:8">
@@ -12539,7 +12630,7 @@
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
       <c r="H176" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="177" spans="2:8">
@@ -12554,7 +12645,7 @@
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="178" spans="2:8">
@@ -12567,35 +12658,35 @@
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
       <c r="H178" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="179" spans="2:8">
       <c r="B179" s="78"/>
       <c r="C179" s="68" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D179" s="24"/>
       <c r="E179" s="24"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180" spans="2:8">
       <c r="B180" s="78"/>
       <c r="C180" s="79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D180" s="24"/>
       <c r="E180" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
       <c r="H180" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181" spans="2:8">
@@ -12610,7 +12701,7 @@
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
       <c r="H181" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="182" spans="2:8">
@@ -12623,7 +12714,7 @@
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
       <c r="H182" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="183" spans="2:8">
@@ -12636,7 +12727,7 @@
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
       <c r="H183" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="184" spans="2:8">
@@ -12651,7 +12742,7 @@
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
       <c r="H184" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="185" spans="2:8">
@@ -12664,7 +12755,7 @@
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
       <c r="H185" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="186" spans="2:8">
@@ -12677,7 +12768,7 @@
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
       <c r="H186" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="187" spans="2:8">
@@ -12690,13 +12781,13 @@
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
       <c r="H187" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" spans="2:8">
       <c r="B188" s="78"/>
       <c r="C188" s="52" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D188" s="24" t="s">
         <v>216</v>
@@ -12705,7 +12796,7 @@
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
       <c r="H188" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="2:8">
@@ -12718,7 +12809,7 @@
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
       <c r="H189" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="190" spans="2:8">
@@ -12731,20 +12822,20 @@
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
       <c r="H190" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="191" spans="2:8">
       <c r="B191" s="78"/>
       <c r="C191" s="52"/>
       <c r="D191" s="24" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E191" s="24"/>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
       <c r="H191" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="192" spans="2:8">
@@ -12757,20 +12848,20 @@
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
       <c r="H192" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193" spans="2:8">
       <c r="B193" s="78"/>
       <c r="C193" s="52"/>
       <c r="D193" s="24" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E193" s="24"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
       <c r="H193" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="2:8">
@@ -12783,7 +12874,7 @@
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
       <c r="H194" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="2:8">
@@ -12798,7 +12889,7 @@
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
       <c r="H195" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="2:8">
@@ -12811,7 +12902,7 @@
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
       <c r="H196" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="2:8">
@@ -12821,7 +12912,7 @@
       </c>
       <c r="D197" s="24"/>
       <c r="E197" s="24" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
@@ -12830,14 +12921,14 @@
     <row r="198" spans="1:8">
       <c r="A198" s="6"/>
       <c r="B198" s="55" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C198" s="29" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
@@ -12847,13 +12938,13 @@
       <c r="A199" s="6"/>
       <c r="B199" s="56"/>
       <c r="C199" s="32" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D199" s="35" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E199" s="47" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
@@ -12864,7 +12955,7 @@
       <c r="B200" s="56"/>
       <c r="C200" s="33"/>
       <c r="D200" s="35" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="E200" s="48"/>
       <c r="F200" s="8"/>
@@ -12876,7 +12967,7 @@
       <c r="B201" s="56"/>
       <c r="C201" s="33"/>
       <c r="D201" s="35" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E201" s="48"/>
       <c r="F201" s="8"/>
@@ -12888,13 +12979,13 @@
       <c r="B202" s="56"/>
       <c r="C202" s="33"/>
       <c r="D202" s="35" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="E202" s="48"/>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
       <c r="H202" s="36" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -12902,7 +12993,7 @@
       <c r="B203" s="56"/>
       <c r="C203" s="33"/>
       <c r="D203" s="35" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="E203" s="48"/>
       <c r="F203" s="8"/>
@@ -12914,7 +13005,7 @@
       <c r="B204" s="56"/>
       <c r="C204" s="33"/>
       <c r="D204" s="35" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E204" s="48"/>
       <c r="F204" s="8"/>
@@ -12926,13 +13017,13 @@
       <c r="B205" s="56"/>
       <c r="C205" s="33"/>
       <c r="D205" s="35" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E205" s="48"/>
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
       <c r="H205" s="36" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -12940,13 +13031,13 @@
       <c r="B206" s="56"/>
       <c r="C206" s="33"/>
       <c r="D206" s="63" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E206" s="48"/>
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
       <c r="H206" s="36" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -12954,7 +13045,7 @@
       <c r="B207" s="56"/>
       <c r="C207" s="33"/>
       <c r="D207" s="35" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E207" s="48"/>
       <c r="F207" s="8"/>
@@ -12966,7 +13057,7 @@
       <c r="B208" s="56"/>
       <c r="C208" s="33"/>
       <c r="D208" s="35" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E208" s="48"/>
       <c r="F208" s="8"/>
@@ -12978,7 +13069,7 @@
       <c r="B209" s="56"/>
       <c r="C209" s="33"/>
       <c r="D209" s="35" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E209" s="48"/>
       <c r="F209" s="8"/>
@@ -12990,7 +13081,7 @@
       <c r="B210" s="56"/>
       <c r="C210" s="35"/>
       <c r="D210" s="35" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="E210" s="49"/>
       <c r="F210" s="8"/>
@@ -13001,11 +13092,11 @@
       <c r="A211" s="6"/>
       <c r="B211" s="56"/>
       <c r="C211" s="29" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D211" s="29"/>
       <c r="E211" s="29" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
@@ -13015,11 +13106,11 @@
       <c r="A212" s="6"/>
       <c r="B212" s="56"/>
       <c r="C212" s="29" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D212" s="29"/>
       <c r="E212" s="29" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
@@ -13029,10 +13120,10 @@
       <c r="A213" s="6"/>
       <c r="B213" s="56"/>
       <c r="C213" s="32" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E213" s="29"/>
       <c r="F213" s="8"/>
@@ -13044,10 +13135,10 @@
       <c r="B214" s="56"/>
       <c r="C214" s="33"/>
       <c r="D214" s="29" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="E214" s="29" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="F214" s="8"/>
       <c r="G214" s="8"/>
@@ -13058,10 +13149,10 @@
       <c r="B215" s="56"/>
       <c r="C215" s="33"/>
       <c r="D215" s="29" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E215" s="29" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
@@ -13072,7 +13163,7 @@
       <c r="B216" s="56"/>
       <c r="C216" s="33"/>
       <c r="D216" s="29" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E216" s="29"/>
       <c r="F216" s="8"/>
@@ -13084,10 +13175,10 @@
       <c r="B217" s="56"/>
       <c r="C217" s="33"/>
       <c r="D217" s="32" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E217" s="29" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
@@ -13099,7 +13190,7 @@
       <c r="C218" s="33"/>
       <c r="D218" s="33"/>
       <c r="E218" s="29" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="F218" s="8"/>
       <c r="G218" s="8"/>
@@ -13111,7 +13202,7 @@
       <c r="C219" s="33"/>
       <c r="D219" s="33"/>
       <c r="E219" s="29" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
@@ -13123,7 +13214,7 @@
       <c r="C220" s="33"/>
       <c r="D220" s="33"/>
       <c r="E220" s="29" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="F220" s="8"/>
       <c r="G220" s="8"/>
@@ -13135,7 +13226,7 @@
       <c r="C221" s="33"/>
       <c r="D221" s="35"/>
       <c r="E221" s="29" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="F221" s="8"/>
       <c r="G221" s="8"/>
@@ -13146,10 +13237,10 @@
       <c r="B222" s="56"/>
       <c r="C222" s="33"/>
       <c r="D222" s="32" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="E222" s="29" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="F222" s="8"/>
       <c r="G222" s="8"/>
@@ -13161,7 +13252,7 @@
       <c r="C223" s="33"/>
       <c r="D223" s="33"/>
       <c r="E223" s="29" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="F223" s="8"/>
       <c r="G223" s="8"/>
@@ -13173,7 +13264,7 @@
       <c r="C224" s="33"/>
       <c r="D224" s="33"/>
       <c r="E224" s="29" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F224" s="8"/>
       <c r="G224" s="8"/>
@@ -13185,7 +13276,7 @@
       <c r="C225" s="33"/>
       <c r="D225" s="33"/>
       <c r="E225" s="29" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="F225" s="8"/>
       <c r="G225" s="8"/>
@@ -13197,7 +13288,7 @@
       <c r="C226" s="35"/>
       <c r="D226" s="35"/>
       <c r="E226" s="29" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="F226" s="8"/>
       <c r="G226" s="8"/>
@@ -13207,7 +13298,7 @@
       <c r="A227" s="6"/>
       <c r="B227" s="56"/>
       <c r="C227" s="29" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="D227" s="35"/>
       <c r="E227" s="29"/>
@@ -13269,7 +13360,7 @@
       <c r="A232" s="6"/>
       <c r="B232" s="56"/>
       <c r="C232" s="9" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="D232" s="8" t="s">
         <v>216</v>
@@ -13308,7 +13399,7 @@
       <c r="B235" s="56"/>
       <c r="C235" s="10"/>
       <c r="D235" s="51" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E235" s="29"/>
       <c r="F235" s="8"/>
@@ -13320,7 +13411,7 @@
       <c r="B236" s="56"/>
       <c r="C236" s="10"/>
       <c r="D236" s="51" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E236" s="29"/>
       <c r="F236" s="8"/>
@@ -13359,7 +13450,7 @@
       </c>
       <c r="D239" s="7"/>
       <c r="E239" s="24" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="F239" s="8"/>
       <c r="G239" s="8"/>
@@ -13382,16 +13473,16 @@
         <v>1</v>
       </c>
       <c r="B241" s="50" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="C241" s="81" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="D241" s="82" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="F241" s="24"/>
       <c r="G241" s="8"/>
@@ -13402,10 +13493,10 @@
       <c r="B242" s="52"/>
       <c r="C242" s="83"/>
       <c r="D242" s="82" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="F242" s="24"/>
       <c r="G242" s="8"/>
@@ -13416,10 +13507,10 @@
       <c r="B243" s="52"/>
       <c r="C243" s="84"/>
       <c r="D243" s="82" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="F243" s="24"/>
       <c r="G243" s="8"/>
@@ -13429,13 +13520,13 @@
       <c r="A244" s="6"/>
       <c r="B244" s="52"/>
       <c r="C244" s="85" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D244" s="82" t="s">
         <v>242</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="F244" s="24"/>
       <c r="G244" s="8"/>
@@ -13449,10 +13540,10 @@
         <v>216</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="F245" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G245" s="8"/>
       <c r="H245" s="8"/>
@@ -13465,10 +13556,10 @@
         <v>46</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="F246" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G246" s="8"/>
       <c r="H246" s="8"/>
@@ -13481,10 +13572,10 @@
         <v>217</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="F247" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G247" s="8"/>
       <c r="H247" s="8"/>
@@ -13494,10 +13585,10 @@
       <c r="B248" s="52"/>
       <c r="C248" s="86"/>
       <c r="D248" s="82" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="F248" s="24"/>
       <c r="G248" s="8"/>
@@ -13508,10 +13599,10 @@
       <c r="B249" s="52"/>
       <c r="C249" s="87"/>
       <c r="D249" s="82" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F249" s="24"/>
       <c r="G249" s="8"/>
@@ -13521,14 +13612,14 @@
       <c r="A250" s="6"/>
       <c r="B250" s="52"/>
       <c r="C250" s="88" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="D250" s="35" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="E250" s="8"/>
       <c r="F250" s="24" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="G250" s="8"/>
       <c r="H250" s="8"/>
@@ -13538,11 +13629,11 @@
       <c r="B251" s="52"/>
       <c r="C251" s="89"/>
       <c r="D251" s="35" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E251" s="8"/>
       <c r="F251" s="24" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="G251" s="8"/>
       <c r="H251" s="8"/>
@@ -13551,7 +13642,7 @@
       <c r="A252" s="6"/>
       <c r="B252" s="52"/>
       <c r="C252" s="85" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="D252" s="90" t="s">
         <v>28</v>
@@ -13570,7 +13661,7 @@
       </c>
       <c r="E253" s="8"/>
       <c r="F253" s="24" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="G253" s="8"/>
       <c r="H253" s="8"/>
@@ -13584,7 +13675,7 @@
       </c>
       <c r="E254" s="8"/>
       <c r="F254" s="24" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="G254" s="8"/>
       <c r="H254" s="8"/>
@@ -13598,7 +13689,7 @@
       </c>
       <c r="E255" s="8"/>
       <c r="F255" s="24" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="G255" s="8"/>
       <c r="H255" s="8"/>
@@ -13608,11 +13699,11 @@
       <c r="B256" s="52"/>
       <c r="C256" s="87"/>
       <c r="D256" s="82" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="E256" s="8"/>
       <c r="F256" s="24" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="G256" s="8"/>
       <c r="H256" s="8"/>
@@ -13621,13 +13712,13 @@
       <c r="A257" s="6"/>
       <c r="B257" s="52"/>
       <c r="C257" s="32" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="D257" s="91" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="E257" s="29" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="F257" s="24"/>
       <c r="G257" s="8"/>
@@ -13638,13 +13729,13 @@
       <c r="B258" s="52"/>
       <c r="C258" s="33"/>
       <c r="D258" s="92" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="E258" s="29" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F258" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G258" s="8"/>
       <c r="H258" s="8"/>
@@ -13654,11 +13745,11 @@
       <c r="B259" s="52"/>
       <c r="C259" s="33"/>
       <c r="D259" s="92" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="E259" s="29"/>
       <c r="F259" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G259" s="8"/>
       <c r="H259" s="8"/>
@@ -13668,11 +13759,11 @@
       <c r="B260" s="52"/>
       <c r="C260" s="33"/>
       <c r="D260" s="92" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="E260" s="29"/>
       <c r="F260" s="8" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G260" s="8"/>
       <c r="H260" s="8"/>
@@ -13682,11 +13773,11 @@
       <c r="B261" s="52"/>
       <c r="C261" s="33"/>
       <c r="D261" s="92" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E261" s="29"/>
       <c r="F261" s="8" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G261" s="8"/>
       <c r="H261" s="8"/>
@@ -13696,11 +13787,11 @@
       <c r="B262" s="52"/>
       <c r="C262" s="33"/>
       <c r="D262" s="92" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E262" s="29"/>
       <c r="F262" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G262" s="8"/>
       <c r="H262" s="8"/>
@@ -13710,11 +13801,11 @@
       <c r="B263" s="52"/>
       <c r="C263" s="33"/>
       <c r="D263" s="92" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="E263" s="29"/>
       <c r="F263" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G263" s="8"/>
       <c r="H263" s="8"/>
@@ -13724,11 +13815,11 @@
       <c r="B264" s="52"/>
       <c r="C264" s="33"/>
       <c r="D264" s="92" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="E264" s="29"/>
       <c r="F264" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G264" s="8"/>
       <c r="H264" s="8"/>
@@ -13738,11 +13829,11 @@
       <c r="B265" s="52"/>
       <c r="C265" s="33"/>
       <c r="D265" s="92" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="E265" s="29"/>
       <c r="F265" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G265" s="8"/>
       <c r="H265" s="8"/>
@@ -13752,7 +13843,7 @@
       <c r="B266" s="52"/>
       <c r="C266" s="33"/>
       <c r="D266" s="91" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="E266" s="29"/>
       <c r="F266" s="24"/>
@@ -13764,11 +13855,11 @@
       <c r="B267" s="52"/>
       <c r="C267" s="33"/>
       <c r="D267" s="92" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="E267" s="29"/>
       <c r="F267" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G267" s="8"/>
       <c r="H267" s="8"/>
@@ -13778,11 +13869,11 @@
       <c r="B268" s="52"/>
       <c r="C268" s="35"/>
       <c r="D268" s="92" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="E268" s="29"/>
       <c r="F268" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G268" s="8"/>
       <c r="H268" s="8"/>
@@ -13791,13 +13882,13 @@
       <c r="A269" s="6"/>
       <c r="B269" s="52"/>
       <c r="C269" s="32" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="D269" s="91" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="E269" s="29" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="F269" s="24"/>
       <c r="G269" s="8"/>
@@ -13808,13 +13899,13 @@
       <c r="B270" s="52"/>
       <c r="C270" s="33"/>
       <c r="D270" s="92" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="E270" s="29" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F270" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G270" s="8"/>
       <c r="H270" s="8"/>
@@ -13824,11 +13915,11 @@
       <c r="B271" s="52"/>
       <c r="C271" s="33"/>
       <c r="D271" s="92" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="E271" s="29"/>
       <c r="F271" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G271" s="8"/>
       <c r="H271" s="8"/>
@@ -13838,11 +13929,11 @@
       <c r="B272" s="52"/>
       <c r="C272" s="33"/>
       <c r="D272" s="92" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="E272" s="29"/>
       <c r="F272" s="8" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G272" s="8"/>
       <c r="H272" s="8"/>
@@ -13852,11 +13943,11 @@
       <c r="B273" s="52"/>
       <c r="C273" s="33"/>
       <c r="D273" s="92" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E273" s="29"/>
       <c r="F273" s="8" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G273" s="8"/>
       <c r="H273" s="8"/>
@@ -13866,11 +13957,11 @@
       <c r="B274" s="52"/>
       <c r="C274" s="33"/>
       <c r="D274" s="92" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="E274" s="29"/>
       <c r="F274" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G274" s="8"/>
       <c r="H274" s="8"/>
@@ -13880,11 +13971,11 @@
       <c r="B275" s="52"/>
       <c r="C275" s="33"/>
       <c r="D275" s="92" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="E275" s="29"/>
       <c r="F275" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G275" s="8"/>
       <c r="H275" s="8"/>
@@ -13894,11 +13985,11 @@
       <c r="B276" s="52"/>
       <c r="C276" s="33"/>
       <c r="D276" s="92" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="E276" s="29"/>
       <c r="F276" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G276" s="8"/>
       <c r="H276" s="8"/>
@@ -13908,11 +13999,11 @@
       <c r="B277" s="52"/>
       <c r="C277" s="33"/>
       <c r="D277" s="92" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="E277" s="29"/>
       <c r="F277" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G277" s="8"/>
       <c r="H277" s="8"/>
@@ -13922,7 +14013,7 @@
       <c r="B278" s="52"/>
       <c r="C278" s="33"/>
       <c r="D278" s="91" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="E278" s="29"/>
       <c r="F278" s="24"/>
@@ -13934,11 +14025,11 @@
       <c r="B279" s="52"/>
       <c r="C279" s="33"/>
       <c r="D279" s="92" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="E279" s="29"/>
       <c r="F279" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G279" s="8"/>
       <c r="H279" s="8"/>
@@ -13948,11 +14039,11 @@
       <c r="B280" s="52"/>
       <c r="C280" s="35"/>
       <c r="D280" s="92" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="E280" s="29"/>
       <c r="F280" s="24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G280" s="8"/>
       <c r="H280" s="8"/>
@@ -13962,13 +14053,13 @@
         <v>1</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
       <c r="F281" s="8" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="G281" s="8"/>
       <c r="H281" s="8"/>
@@ -13978,7 +14069,7 @@
         <v>1</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
@@ -13990,15 +14081,15 @@
     <row r="283" spans="1:8">
       <c r="A283" s="6"/>
       <c r="B283" s="50" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
       <c r="F283" s="8" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="G283" s="8"/>
       <c r="H283" s="8"/>
@@ -14007,27 +14098,27 @@
       <c r="A284" s="6"/>
       <c r="B284" s="53"/>
       <c r="C284" s="8" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
       <c r="F284" s="8" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="G284" s="8"/>
       <c r="H284" s="8"/>
     </row>
     <row r="285" spans="2:8">
       <c r="B285" s="52" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="D285" s="24"/>
       <c r="E285" s="24"/>
       <c r="F285" s="8" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="G285" s="8"/>
       <c r="H285" s="25"/>
@@ -14040,7 +14131,7 @@
       <c r="D286" s="24"/>
       <c r="E286" s="24"/>
       <c r="F286" s="8" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="G286" s="8"/>
       <c r="H286" s="25"/>
@@ -14053,7 +14144,7 @@
       <c r="D287" s="24"/>
       <c r="E287" s="24"/>
       <c r="F287" s="8" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="G287" s="8"/>
       <c r="H287" s="25"/>
@@ -14066,7 +14157,7 @@
       <c r="D288" s="24"/>
       <c r="E288" s="24"/>
       <c r="F288" s="8" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="G288" s="8"/>
       <c r="H288" s="25"/>
@@ -14079,7 +14170,7 @@
       <c r="D289" s="24"/>
       <c r="E289" s="24"/>
       <c r="F289" s="8" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="G289" s="8"/>
       <c r="H289" s="25"/>
@@ -14087,12 +14178,12 @@
     <row r="290" spans="2:8">
       <c r="B290" s="52"/>
       <c r="C290" s="8" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="D290" s="24"/>
       <c r="E290" s="24"/>
       <c r="F290" s="8" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="G290" s="8"/>
       <c r="H290" s="25"/>
@@ -14100,12 +14191,12 @@
     <row r="291" spans="2:8">
       <c r="B291" s="52"/>
       <c r="C291" s="8" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="D291" s="24"/>
       <c r="E291" s="24"/>
       <c r="F291" s="8" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="G291" s="8"/>
       <c r="H291" s="25"/>
@@ -14113,7 +14204,7 @@
     <row r="292" spans="2:8">
       <c r="B292" s="53"/>
       <c r="C292" s="8" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D292" s="24"/>
       <c r="E292" s="24"/>
@@ -14123,10 +14214,10 @@
     </row>
     <row r="293" spans="2:8">
       <c r="B293" s="93" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="D293" s="24"/>
       <c r="E293" s="24"/>
@@ -14137,7 +14228,7 @@
     <row r="294" spans="2:8">
       <c r="B294" s="94"/>
       <c r="C294" s="24" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="D294" s="24"/>
       <c r="E294" s="24"/>
@@ -14345,10 +14436,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>199</v>
@@ -14402,7 +14493,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -14689,18 +14780,18 @@
     <row r="29" s="1" customFormat="1" spans="1:8">
       <c r="A29" s="6"/>
       <c r="B29" s="9" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H29" s="36"/>
     </row>
@@ -14709,12 +14800,12 @@
       <c r="B30" s="10"/>
       <c r="C30" s="48"/>
       <c r="D30" s="8" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H30" s="36"/>
     </row>
@@ -14723,12 +14814,12 @@
       <c r="B31" s="10"/>
       <c r="C31" s="48"/>
       <c r="D31" s="8" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H31" s="36"/>
     </row>
@@ -14737,12 +14828,12 @@
       <c r="B32" s="10"/>
       <c r="C32" s="48"/>
       <c r="D32" s="8" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H32" s="36"/>
     </row>
@@ -14751,12 +14842,12 @@
       <c r="B33" s="10"/>
       <c r="C33" s="48"/>
       <c r="D33" s="8" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H33" s="36"/>
     </row>
@@ -14765,12 +14856,12 @@
       <c r="B34" s="10"/>
       <c r="C34" s="48"/>
       <c r="D34" s="8" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H34" s="36"/>
     </row>
@@ -14779,12 +14870,12 @@
       <c r="B35" s="10"/>
       <c r="C35" s="48"/>
       <c r="D35" s="8" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H35" s="36"/>
     </row>
@@ -14793,12 +14884,12 @@
       <c r="B36" s="10"/>
       <c r="C36" s="48"/>
       <c r="D36" s="24" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H36" s="36"/>
     </row>
@@ -14807,12 +14898,12 @@
       <c r="B37" s="10"/>
       <c r="C37" s="48"/>
       <c r="D37" s="8" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="24"/>
       <c r="G37" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H37" s="36"/>
     </row>
@@ -14821,12 +14912,12 @@
       <c r="B38" s="10"/>
       <c r="C38" s="48"/>
       <c r="D38" s="8" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H38" s="36"/>
     </row>
@@ -14835,12 +14926,12 @@
       <c r="B39" s="10"/>
       <c r="C39" s="48"/>
       <c r="D39" s="8" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H39" s="36"/>
     </row>
@@ -14849,12 +14940,12 @@
       <c r="B40" s="10"/>
       <c r="C40" s="49"/>
       <c r="D40" s="8" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="H40" s="36"/>
     </row>
@@ -14865,12 +14956,12 @@
         <v>158</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="H41" s="36"/>
     </row>
@@ -14923,7 +15014,7 @@
     <row r="45" s="1" customFormat="1" spans="1:8">
       <c r="A45" s="6"/>
       <c r="B45" s="44" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>243</v>
@@ -15138,7 +15229,7 @@
         <v>268</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -15155,7 +15246,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="36"/>
@@ -15232,10 +15323,10 @@
       <c r="A69" s="6"/>
       <c r="B69" s="45"/>
       <c r="C69" s="33" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -15247,7 +15338,7 @@
       <c r="B70" s="45"/>
       <c r="C70" s="33"/>
       <c r="D70" s="35" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -15259,7 +15350,7 @@
       <c r="B71" s="45"/>
       <c r="C71" s="33"/>
       <c r="D71" s="35" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -15271,7 +15362,7 @@
       <c r="B72" s="45"/>
       <c r="C72" s="33"/>
       <c r="D72" s="35" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -15283,7 +15374,7 @@
       <c r="B73" s="45"/>
       <c r="C73" s="33"/>
       <c r="D73" s="35" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -15295,7 +15386,7 @@
       <c r="B74" s="45"/>
       <c r="C74" s="33"/>
       <c r="D74" s="35" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -15307,7 +15398,7 @@
       <c r="B75" s="45"/>
       <c r="C75" s="33"/>
       <c r="D75" s="35" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -15319,7 +15410,7 @@
       <c r="B76" s="45"/>
       <c r="C76" s="33"/>
       <c r="D76" s="35" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -15331,7 +15422,7 @@
       <c r="B77" s="45"/>
       <c r="C77" s="33"/>
       <c r="D77" s="35" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -15343,7 +15434,7 @@
       <c r="B78" s="45"/>
       <c r="C78" s="33"/>
       <c r="D78" s="35" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
@@ -15355,7 +15446,7 @@
       <c r="B79" s="45"/>
       <c r="C79" s="33"/>
       <c r="D79" s="35" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -15367,7 +15458,7 @@
       <c r="B80" s="45"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
@@ -15412,7 +15503,7 @@
       <c r="A83" s="6"/>
       <c r="B83" s="56"/>
       <c r="C83" s="29" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
@@ -15469,13 +15560,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="8"/>
@@ -15487,7 +15578,7 @@
       <c r="B88" s="33"/>
       <c r="C88" s="10"/>
       <c r="D88" s="41" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="E88" s="29"/>
       <c r="F88" s="8"/>
@@ -15499,11 +15590,11 @@
       <c r="B89" s="33"/>
       <c r="C89" s="10"/>
       <c r="D89" s="29" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -15513,7 +15604,7 @@
       <c r="B90" s="33"/>
       <c r="C90" s="10"/>
       <c r="D90" s="58" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -15525,13 +15616,13 @@
       <c r="B91" s="33"/>
       <c r="C91" s="11"/>
       <c r="D91" s="8" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -15542,10 +15633,10 @@
       </c>
       <c r="B92" s="33"/>
       <c r="C92" s="9" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D92" s="41" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="E92" s="29"/>
       <c r="F92" s="8"/>
@@ -15557,7 +15648,7 @@
       <c r="B93" s="33"/>
       <c r="C93" s="10"/>
       <c r="D93" s="41" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="E93" s="29"/>
       <c r="F93" s="8"/>
@@ -15569,11 +15660,11 @@
       <c r="B94" s="33"/>
       <c r="C94" s="10"/>
       <c r="D94" s="29" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -15583,7 +15674,7 @@
       <c r="B95" s="33"/>
       <c r="C95" s="10"/>
       <c r="D95" s="58" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -15595,13 +15686,13 @@
       <c r="B96" s="33"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -15612,14 +15703,14 @@
       </c>
       <c r="B97" s="33"/>
       <c r="C97" s="32" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="E97" s="29"/>
       <c r="F97" s="8" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -15629,11 +15720,11 @@
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
       <c r="D98" s="29" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="E98" s="29"/>
       <c r="F98" s="8" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
@@ -15643,11 +15734,11 @@
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
       <c r="D99" s="29" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="8" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -15659,7 +15750,7 @@
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
       <c r="D100" s="41" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="E100" s="29"/>
       <c r="F100" s="8"/>
@@ -15673,11 +15764,11 @@
       <c r="B101" s="35"/>
       <c r="C101" s="35"/>
       <c r="D101" s="29" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="8" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -15687,15 +15778,15 @@
         <v>1</v>
       </c>
       <c r="B102" s="59" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
       <c r="F102" s="8" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
@@ -15706,14 +15797,14 @@
       </c>
       <c r="B103" s="59"/>
       <c r="C103" s="29" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D103" s="29"/>
       <c r="E103" s="58" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
@@ -16110,7 +16201,7 @@
         <v>354</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
@@ -16121,7 +16212,7 @@
       <c r="B134" s="45"/>
       <c r="C134" s="52"/>
       <c r="D134" s="35" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E134" s="35" t="s">
         <v>358</v>
@@ -16141,7 +16232,7 @@
         <v>243</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="36"/>
@@ -16155,7 +16246,7 @@
         <v>245</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="36"/>
@@ -16169,7 +16260,7 @@
         <v>246</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="36"/>
@@ -16183,7 +16274,7 @@
         <v>247</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="36"/>
@@ -16197,7 +16288,7 @@
         <v>249</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="36"/>
@@ -16211,7 +16302,7 @@
         <v>248</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="36"/>
@@ -16225,7 +16316,7 @@
         <v>250</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="36"/>
@@ -16241,7 +16332,7 @@
         <v>254</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="36"/>
@@ -16255,7 +16346,7 @@
         <v>256</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="36"/>
@@ -16269,7 +16360,7 @@
         <v>258</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="36"/>
@@ -16283,7 +16374,7 @@
         <v>259</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G145" s="8"/>
       <c r="H145" s="36"/>
@@ -16297,7 +16388,7 @@
         <v>260</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="36"/>
@@ -16311,7 +16402,7 @@
         <v>261</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="36"/>
@@ -16325,7 +16416,7 @@
         <v>262</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="36"/>
@@ -16339,7 +16430,7 @@
         <v>363</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="36"/>
@@ -16353,7 +16444,7 @@
         <v>364</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="36"/>
@@ -16371,7 +16462,7 @@
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c r="H151" s="36" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="1" spans="1:8">
@@ -16492,7 +16583,7 @@
       <c r="A161" s="6"/>
       <c r="B161" s="45"/>
       <c r="C161" s="24" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D161" s="24"/>
       <c r="E161" s="24"/>
@@ -16504,11 +16595,11 @@
       <c r="A162" s="6"/>
       <c r="B162" s="45"/>
       <c r="C162" s="26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D162" s="24"/>
       <c r="E162" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
@@ -16606,7 +16697,7 @@
       <c r="A170" s="6"/>
       <c r="B170" s="45"/>
       <c r="C170" s="52" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D170" s="24" t="s">
         <v>216</v>
@@ -16645,7 +16736,7 @@
       <c r="B173" s="45"/>
       <c r="C173" s="52"/>
       <c r="D173" s="24" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E173" s="24"/>
       <c r="F173" s="8"/>
@@ -16669,7 +16760,7 @@
       <c r="B175" s="45"/>
       <c r="C175" s="52"/>
       <c r="D175" s="24" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E175" s="24"/>
       <c r="F175" s="8"/>
@@ -16722,7 +16813,7 @@
       </c>
       <c r="D179" s="24"/>
       <c r="E179" s="24" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
@@ -16731,14 +16822,14 @@
     <row r="180" s="1" customFormat="1" spans="1:8">
       <c r="A180" s="6"/>
       <c r="B180" s="44" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="29" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
@@ -16748,13 +16839,13 @@
       <c r="A181" s="6"/>
       <c r="B181" s="45"/>
       <c r="C181" s="32" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E181" s="47" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
@@ -16765,7 +16856,7 @@
       <c r="B182" s="45"/>
       <c r="C182" s="33"/>
       <c r="D182" s="35" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="E182" s="48"/>
       <c r="F182" s="8"/>
@@ -16777,7 +16868,7 @@
       <c r="B183" s="45"/>
       <c r="C183" s="33"/>
       <c r="D183" s="35" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E183" s="48"/>
       <c r="F183" s="8"/>
@@ -16789,7 +16880,7 @@
       <c r="B184" s="45"/>
       <c r="C184" s="33"/>
       <c r="D184" s="35" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="E184" s="48"/>
       <c r="F184" s="8"/>
@@ -16801,7 +16892,7 @@
       <c r="B185" s="45"/>
       <c r="C185" s="33"/>
       <c r="D185" s="35" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="E185" s="48"/>
       <c r="F185" s="8"/>
@@ -16813,7 +16904,7 @@
       <c r="B186" s="45"/>
       <c r="C186" s="33"/>
       <c r="D186" s="35" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E186" s="48"/>
       <c r="F186" s="8"/>
@@ -16825,7 +16916,7 @@
       <c r="B187" s="45"/>
       <c r="C187" s="33"/>
       <c r="D187" s="35" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E187" s="48"/>
       <c r="F187" s="8"/>
@@ -16837,7 +16928,7 @@
       <c r="B188" s="45"/>
       <c r="C188" s="33"/>
       <c r="D188" s="63" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E188" s="48"/>
       <c r="F188" s="8"/>
@@ -16849,7 +16940,7 @@
       <c r="B189" s="45"/>
       <c r="C189" s="33"/>
       <c r="D189" s="35" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E189" s="48"/>
       <c r="F189" s="8"/>
@@ -16861,7 +16952,7 @@
       <c r="B190" s="45"/>
       <c r="C190" s="33"/>
       <c r="D190" s="35" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E190" s="48"/>
       <c r="F190" s="8"/>
@@ -16873,7 +16964,7 @@
       <c r="B191" s="45"/>
       <c r="C191" s="33"/>
       <c r="D191" s="35" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E191" s="48"/>
       <c r="F191" s="8"/>
@@ -16885,7 +16976,7 @@
       <c r="B192" s="45"/>
       <c r="C192" s="35"/>
       <c r="D192" s="35" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="E192" s="49"/>
       <c r="F192" s="8"/>
@@ -16896,11 +16987,11 @@
       <c r="A193" s="6"/>
       <c r="B193" s="45"/>
       <c r="C193" s="29" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D193" s="29"/>
       <c r="E193" s="29" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
@@ -16910,11 +17001,11 @@
       <c r="A194" s="6"/>
       <c r="B194" s="45"/>
       <c r="C194" s="29" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D194" s="29"/>
       <c r="E194" s="29" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
@@ -16924,10 +17015,10 @@
       <c r="A195" s="6"/>
       <c r="B195" s="45"/>
       <c r="C195" s="32" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D195" s="29" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E195" s="29"/>
       <c r="F195" s="8"/>
@@ -16939,10 +17030,10 @@
       <c r="B196" s="45"/>
       <c r="C196" s="33"/>
       <c r="D196" s="29" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="E196" s="29" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
@@ -16953,10 +17044,10 @@
       <c r="B197" s="45"/>
       <c r="C197" s="33"/>
       <c r="D197" s="29" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E197" s="29" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
@@ -16967,7 +17058,7 @@
       <c r="B198" s="45"/>
       <c r="C198" s="33"/>
       <c r="D198" s="29" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E198" s="29"/>
       <c r="F198" s="8"/>
@@ -16979,10 +17070,10 @@
       <c r="B199" s="45"/>
       <c r="C199" s="33"/>
       <c r="D199" s="32" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E199" s="29" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
@@ -16994,7 +17085,7 @@
       <c r="C200" s="33"/>
       <c r="D200" s="33"/>
       <c r="E200" s="29" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
@@ -17006,7 +17097,7 @@
       <c r="C201" s="33"/>
       <c r="D201" s="33"/>
       <c r="E201" s="29" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
@@ -17018,7 +17109,7 @@
       <c r="C202" s="33"/>
       <c r="D202" s="33"/>
       <c r="E202" s="29" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
@@ -17030,7 +17121,7 @@
       <c r="C203" s="33"/>
       <c r="D203" s="35"/>
       <c r="E203" s="29" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
@@ -17041,10 +17132,10 @@
       <c r="B204" s="45"/>
       <c r="C204" s="33"/>
       <c r="D204" s="32" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="E204" s="29" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
@@ -17056,7 +17147,7 @@
       <c r="C205" s="33"/>
       <c r="D205" s="33"/>
       <c r="E205" s="29" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
@@ -17068,7 +17159,7 @@
       <c r="C206" s="33"/>
       <c r="D206" s="33"/>
       <c r="E206" s="29" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
@@ -17080,7 +17171,7 @@
       <c r="C207" s="33"/>
       <c r="D207" s="33"/>
       <c r="E207" s="29" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
@@ -17092,7 +17183,7 @@
       <c r="C208" s="35"/>
       <c r="D208" s="35"/>
       <c r="E208" s="29" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
@@ -17102,7 +17193,7 @@
       <c r="A209" s="6"/>
       <c r="B209" s="45"/>
       <c r="C209" s="29" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="D209" s="35"/>
       <c r="E209" s="29"/>
@@ -17164,7 +17255,7 @@
       <c r="A214" s="6"/>
       <c r="B214" s="45"/>
       <c r="C214" s="9" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>216</v>
@@ -17203,7 +17294,7 @@
       <c r="B217" s="45"/>
       <c r="C217" s="10"/>
       <c r="D217" s="51" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E217" s="29"/>
       <c r="F217" s="8"/>
@@ -17215,10 +17306,10 @@
       <c r="B218" s="45"/>
       <c r="C218" s="10"/>
       <c r="D218" s="51" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E218" s="29" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="F218" s="8"/>
       <c r="G218" s="8"/>
@@ -17256,7 +17347,7 @@
       </c>
       <c r="D221" s="7"/>
       <c r="E221" s="24" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="F221" s="8"/>
       <c r="G221" s="8"/>
@@ -17277,17 +17368,17 @@
     <row r="223" spans="1:8">
       <c r="A223" s="6"/>
       <c r="B223" s="10" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D223" s="8"/>
       <c r="E223" s="8" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="G223" s="8"/>
       <c r="H223" s="8"/>
@@ -17303,7 +17394,7 @@
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
       <c r="F224" s="8" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="G224" s="8"/>
       <c r="H224" s="8"/>
@@ -17319,7 +17410,7 @@
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
       <c r="F225" s="8" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="G225" s="8"/>
       <c r="H225" s="8"/>
@@ -17335,7 +17426,7 @@
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
       <c r="F226" s="8" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="G226" s="8"/>
       <c r="H226" s="8"/>
@@ -17351,7 +17442,7 @@
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
       <c r="F227" s="64" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="G227" s="8"/>
       <c r="H227" s="8"/>
@@ -17367,7 +17458,7 @@
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
       <c r="F228" s="8" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="G228" s="8"/>
       <c r="H228" s="8"/>
@@ -17378,12 +17469,12 @@
       </c>
       <c r="B229" s="10"/>
       <c r="C229" s="8" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
       <c r="F229" s="8" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="G229" s="8"/>
       <c r="H229" s="8"/>
@@ -17392,12 +17483,12 @@
       <c r="A230" s="6"/>
       <c r="B230" s="10"/>
       <c r="C230" s="8" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
       <c r="F230" s="8" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="G230" s="8"/>
       <c r="H230" s="8"/>
@@ -17420,7 +17511,7 @@
       </c>
       <c r="B232" s="11"/>
       <c r="C232" s="41" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
@@ -17436,12 +17527,12 @@
         <v>7</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
       <c r="F233" s="8" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="G233" s="8"/>
       <c r="H233" s="8"/>
@@ -17452,12 +17543,12 @@
       </c>
       <c r="B234" s="10"/>
       <c r="C234" s="8" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
       <c r="F234" s="8" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="G234" s="8"/>
       <c r="H234" s="8"/>
@@ -17468,12 +17559,12 @@
       </c>
       <c r="B235" s="10"/>
       <c r="C235" s="8" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
       <c r="F235" s="8" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="G235" s="8"/>
       <c r="H235" s="8"/>
@@ -17484,12 +17575,12 @@
       </c>
       <c r="B236" s="10"/>
       <c r="C236" s="8" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
       <c r="F236" s="8" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="G236" s="8"/>
       <c r="H236" s="8"/>
@@ -17497,12 +17588,12 @@
     <row r="237" spans="1:8">
       <c r="A237" s="6"/>
       <c r="B237" s="47" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
       <c r="E237" s="8" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="F237" s="8"/>
       <c r="G237" s="8"/>
@@ -17784,7 +17875,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -18093,7 +18184,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="24"/>
@@ -18108,7 +18199,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>339</v>
@@ -18178,7 +18269,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>332</v>
@@ -18233,7 +18324,7 @@
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="26" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="29"/>
@@ -18245,7 +18336,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>359</v>
@@ -18254,7 +18345,7 @@
         <v>243</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29" t="s">
@@ -18271,7 +18362,7 @@
         <v>245</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29" t="s">
@@ -18288,7 +18379,7 @@
         <v>246</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29" t="s">
@@ -18305,7 +18396,7 @@
         <v>247</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29" t="s">
@@ -18322,7 +18413,7 @@
         <v>248</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29" t="s">
@@ -18339,7 +18430,7 @@
         <v>249</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29" t="s">
@@ -18356,7 +18447,7 @@
         <v>250</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29" t="s">
@@ -18373,11 +18464,11 @@
         <v>253</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="33" spans="1:7">
@@ -18389,10 +18480,10 @@
         <v>362</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29" t="s">
@@ -18406,10 +18497,10 @@
       <c r="B32" s="10"/>
       <c r="C32" s="33"/>
       <c r="D32" s="29" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29" t="s">
@@ -18423,10 +18514,10 @@
       <c r="B33" s="10"/>
       <c r="C33" s="33"/>
       <c r="D33" s="29" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29" t="s">
@@ -18443,7 +18534,7 @@
         <v>261</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29" t="s">
@@ -18460,7 +18551,7 @@
         <v>262</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29" t="s">
@@ -18477,7 +18568,7 @@
         <v>263</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29" t="s">
@@ -18496,7 +18587,7 @@
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="33" spans="1:7">
@@ -18509,7 +18600,7 @@
         <v>364</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29" t="s">
@@ -18528,7 +18619,7 @@
         <v>254</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="29" t="s">
@@ -18545,7 +18636,7 @@
         <v>256</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29" t="s">
@@ -18557,10 +18648,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="8" t="s">
@@ -18610,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>323</v>
@@ -18852,7 +18943,7 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -18867,7 +18958,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -18882,7 +18973,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -18897,7 +18988,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -18912,7 +19003,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -18927,7 +19018,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -18944,7 +19035,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -18959,7 +19050,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -18974,7 +19065,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -18982,7 +19073,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>339</v>
@@ -18991,7 +19082,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -19006,7 +19097,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -19021,7 +19112,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -19036,7 +19127,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -19044,7 +19135,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>332</v>
@@ -19053,7 +19144,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -19068,7 +19159,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -19083,7 +19174,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -19098,7 +19189,7 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -19107,13 +19198,13 @@
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:7">
@@ -19121,14 +19212,14 @@
         <v>1</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -19198,7 +19289,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
@@ -19215,7 +19306,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
@@ -19232,7 +19323,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
@@ -19249,7 +19340,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
@@ -19266,7 +19357,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
@@ -19283,7 +19374,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
@@ -19295,14 +19386,14 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>339</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
@@ -19319,7 +19410,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
@@ -19336,7 +19427,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
@@ -19353,7 +19444,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
@@ -19365,12 +19456,12 @@
         <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
@@ -19382,16 +19473,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
@@ -19403,14 +19494,14 @@
         <v>1</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
@@ -19422,16 +19513,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
@@ -19443,16 +19534,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
@@ -19465,13 +19556,13 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>695</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
@@ -19484,13 +19575,13 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="13" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
@@ -19503,13 +19594,13 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="13" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8" t="s">
@@ -19522,13 +19613,13 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="13" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
@@ -19541,13 +19632,13 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="13" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
@@ -19559,16 +19650,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
@@ -19581,13 +19672,13 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>695</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
@@ -19600,13 +19691,13 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="13" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
@@ -19619,13 +19710,13 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="13" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
@@ -19638,13 +19729,13 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="13" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
@@ -19657,13 +19748,13 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="13" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
@@ -19675,14 +19766,14 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
@@ -19695,11 +19786,11 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
@@ -19711,14 +19802,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
@@ -19731,11 +19822,11 @@
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="16" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
@@ -19747,14 +19838,14 @@
         <v>1</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
